--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08621A-15A1-4B34-BE97-1A45B900A14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0C756-B594-4146-BAF6-ED55BFFEB577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 1 - Test Case Summary</t>
+    <t>Spint( 37) - Day 1 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 2 - Test Case Summary</t>
+    <t>Spint( 37) - Day 2 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE0C756-B594-4146-BAF6-ED55BFFEB577}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08621A-15A1-4B34-BE97-1A45B900A14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 37) - Day 1 - Test Case Summary</t>
+    <t>Spint( 36) - Day 1 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 37) - Day 2 - Test Case Summary</t>
+    <t>Spint( 36) - Day 2 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD08621A-15A1-4B34-BE97-1A45B900A14B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94CAF4-9D67-4B05-8CF2-708D773C48A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -36,10 +36,10 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 1 - Test Case Summary</t>
+    <t>Spint( 3) - Day 2 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 36) - Day 2 - Test Case Summary</t>
+    <t>Spint( 3) - Day 1 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -516,25 +516,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -558,13 +558,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -580,7 +580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -588,10 +588,41 @@
         <v>50</v>
       </c>
     </row>
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94CAF4-9D67-4B05-8CF2-708D773C48A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85365EED-898B-4F5C-A7D7-E053C572EC5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -36,10 +36,16 @@
     <t>Total Review</t>
   </si>
   <si>
-    <t>Spint( 3) - Day 2 - Test Case Summary</t>
+    <t>Spint( 37) - Day 1 - Test Case Summary</t>
   </si>
   <si>
-    <t>Spint( 3) - Day 1 - Test Case Summary</t>
+    <t>Spint( 37) - Day 2 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 4 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 5 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -516,33 +522,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -550,79 +556,110 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="C18" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
-        <v>173</v>
+      <c r="C19" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\test_case_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85365EED-898B-4F5C-A7D7-E053C572EC5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA517AF-B398-4B44-BDBE-F79DE93692BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="B2:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA517AF-B398-4B44-BDBE-F79DE93692BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0165044-FBDD-4732-9E91-C13BFC7BDE9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>Spint( 37) - Day 5 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 3 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 6 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 7 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 8 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C27"/>
+  <dimension ref="B2:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -583,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -591,12 +603,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7"/>
     </row>
@@ -605,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -613,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -621,12 +634,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="7"/>
     </row>
@@ -635,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>133</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -643,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -651,11 +664,135 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>81</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B16:C16"/>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0165044-FBDD-4732-9E91-C13BFC7BDE9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF9B27-6BFB-4CB2-8D21-0DCD88F0E6D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Total  testcase Written</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Spint( 37) - Day 8 - Test Case Summary</t>
+  </si>
+  <si>
+    <t>Spint( 37) - Day 9 - Test Case Summary</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C51"/>
+  <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -787,8 +790,39 @@
         <v>511</v>
       </c>
     </row>
+    <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B30:C30"/>

--- a/test_case_report/sprint_37.xlsx
+++ b/test_case_report/sprint_37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAF9B27-6BFB-4CB2-8D21-0DCD88F0E6D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051AD63E-D301-4973-A169-EF6FB2BBAFDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -822,15 +822,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
